--- a/school_excel_data/update_student_2.xlsx
+++ b/school_excel_data/update_student_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school\refactor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school_excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2887,7 +2887,7 @@
   <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G336"/>
+      <selection activeCell="E2" sqref="E2:E336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2938,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2961,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2984,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3007,7 +3007,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3030,7 +3030,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3053,7 +3053,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -3076,7 +3076,7 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -3099,7 +3099,7 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -3122,7 +3122,7 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -3145,7 +3145,7 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -3168,7 +3168,7 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -3191,7 +3191,7 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>44</v>
       </c>
       <c r="E14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         <v>47</v>
       </c>
       <c r="E15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3260,7 +3260,7 @@
         <v>50</v>
       </c>
       <c r="E16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3283,7 +3283,7 @@
         <v>53</v>
       </c>
       <c r="E17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3306,7 +3306,7 @@
         <v>56</v>
       </c>
       <c r="E18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -3329,7 +3329,7 @@
         <v>59</v>
       </c>
       <c r="E19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3352,7 +3352,7 @@
         <v>62</v>
       </c>
       <c r="E20">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>65</v>
       </c>
       <c r="E21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>47</v>
       </c>
       <c r="E22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -3421,7 +3421,7 @@
         <v>70</v>
       </c>
       <c r="E23">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -3444,7 +3444,7 @@
         <v>73</v>
       </c>
       <c r="E24">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -3467,7 +3467,7 @@
         <v>76</v>
       </c>
       <c r="E25">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -3490,7 +3490,7 @@
         <v>44</v>
       </c>
       <c r="E26">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -3513,7 +3513,7 @@
         <v>81</v>
       </c>
       <c r="E27">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -3536,7 +3536,7 @@
         <v>53</v>
       </c>
       <c r="E28">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -3559,7 +3559,7 @@
         <v>86</v>
       </c>
       <c r="E29">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3582,7 +3582,7 @@
         <v>89</v>
       </c>
       <c r="E30">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -3605,7 +3605,7 @@
         <v>92</v>
       </c>
       <c r="E31">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -3628,7 +3628,7 @@
         <v>95</v>
       </c>
       <c r="E32">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -3651,7 +3651,7 @@
         <v>98</v>
       </c>
       <c r="E33">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -3674,7 +3674,7 @@
         <v>100</v>
       </c>
       <c r="E34">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -3697,7 +3697,7 @@
         <v>103</v>
       </c>
       <c r="E35">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -3720,7 +3720,7 @@
         <v>106</v>
       </c>
       <c r="E36">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -3743,7 +3743,7 @@
         <v>109</v>
       </c>
       <c r="E37">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -3766,7 +3766,7 @@
         <v>112</v>
       </c>
       <c r="E38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -3789,7 +3789,7 @@
         <v>115</v>
       </c>
       <c r="E39">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -3812,7 +3812,7 @@
         <v>118</v>
       </c>
       <c r="E40">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -3835,7 +3835,7 @@
         <v>121</v>
       </c>
       <c r="E41">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -3858,7 +3858,7 @@
         <v>124</v>
       </c>
       <c r="E42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -3881,7 +3881,7 @@
         <v>127</v>
       </c>
       <c r="E43">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -3904,7 +3904,7 @@
         <v>130</v>
       </c>
       <c r="E44">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -3927,7 +3927,7 @@
         <v>133</v>
       </c>
       <c r="E45">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>136</v>
       </c>
       <c r="E46">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3973,7 +3973,7 @@
         <v>139</v>
       </c>
       <c r="E47">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -3996,7 +3996,7 @@
         <v>76</v>
       </c>
       <c r="E48">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -4019,7 +4019,7 @@
         <v>144</v>
       </c>
       <c r="E49">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -4042,7 +4042,7 @@
         <v>147</v>
       </c>
       <c r="E50">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         <v>150</v>
       </c>
       <c r="E51">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -4088,7 +4088,7 @@
         <v>100</v>
       </c>
       <c r="E52">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -4111,7 +4111,7 @@
         <v>86</v>
       </c>
       <c r="E53">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -4134,7 +4134,7 @@
         <v>157</v>
       </c>
       <c r="E54">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -4157,7 +4157,7 @@
         <v>160</v>
       </c>
       <c r="E55">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -4180,7 +4180,7 @@
         <v>163</v>
       </c>
       <c r="E56">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -4203,7 +4203,7 @@
         <v>166</v>
       </c>
       <c r="E57">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -4226,7 +4226,7 @@
         <v>169</v>
       </c>
       <c r="E58">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -4249,7 +4249,7 @@
         <v>172</v>
       </c>
       <c r="E59">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -4272,7 +4272,7 @@
         <v>175</v>
       </c>
       <c r="E60">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -4295,7 +4295,7 @@
         <v>130</v>
       </c>
       <c r="E61">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -4318,7 +4318,7 @@
         <v>180</v>
       </c>
       <c r="E62">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>136</v>
       </c>
       <c r="E63">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -4364,7 +4364,7 @@
         <v>185</v>
       </c>
       <c r="E64">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -4387,7 +4387,7 @@
         <v>188</v>
       </c>
       <c r="E65">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -4410,7 +4410,7 @@
         <v>191</v>
       </c>
       <c r="E66">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -4433,7 +4433,7 @@
         <v>27</v>
       </c>
       <c r="E67">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -4456,7 +4456,7 @@
         <v>195</v>
       </c>
       <c r="E68">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -4479,7 +4479,7 @@
         <v>198</v>
       </c>
       <c r="E69">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -4502,7 +4502,7 @@
         <v>201</v>
       </c>
       <c r="E70">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -4525,7 +4525,7 @@
         <v>204</v>
       </c>
       <c r="E71">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -4548,7 +4548,7 @@
         <v>207</v>
       </c>
       <c r="E72">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -4571,7 +4571,7 @@
         <v>188</v>
       </c>
       <c r="E73">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -4594,7 +4594,7 @@
         <v>212</v>
       </c>
       <c r="E74">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -4617,7 +4617,7 @@
         <v>214</v>
       </c>
       <c r="E75">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -4640,7 +4640,7 @@
         <v>217</v>
       </c>
       <c r="E76">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -4663,7 +4663,7 @@
         <v>219</v>
       </c>
       <c r="E77">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -4686,7 +4686,7 @@
         <v>222</v>
       </c>
       <c r="E78">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -4709,7 +4709,7 @@
         <v>212</v>
       </c>
       <c r="E79">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -4732,7 +4732,7 @@
         <v>95</v>
       </c>
       <c r="E80">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -4755,7 +4755,7 @@
         <v>44</v>
       </c>
       <c r="E81">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -4778,7 +4778,7 @@
         <v>169</v>
       </c>
       <c r="E82">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -4801,7 +4801,7 @@
         <v>191</v>
       </c>
       <c r="E83">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -4824,7 +4824,7 @@
         <v>235</v>
       </c>
       <c r="E84">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -4847,7 +4847,7 @@
         <v>92</v>
       </c>
       <c r="E85">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -4870,7 +4870,7 @@
         <v>240</v>
       </c>
       <c r="E86">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -4893,7 +4893,7 @@
         <v>243</v>
       </c>
       <c r="E87">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -4916,7 +4916,7 @@
         <v>95</v>
       </c>
       <c r="E88">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -4939,7 +4939,7 @@
         <v>248</v>
       </c>
       <c r="E89">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -4962,7 +4962,7 @@
         <v>251</v>
       </c>
       <c r="E90">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -4985,7 +4985,7 @@
         <v>53</v>
       </c>
       <c r="E91">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -5008,7 +5008,7 @@
         <v>256</v>
       </c>
       <c r="E92">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -5031,7 +5031,7 @@
         <v>259</v>
       </c>
       <c r="E93">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -5054,7 +5054,7 @@
         <v>262</v>
       </c>
       <c r="E94">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -5077,7 +5077,7 @@
         <v>265</v>
       </c>
       <c r="E95">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -5100,7 +5100,7 @@
         <v>89</v>
       </c>
       <c r="E96">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -5123,7 +5123,7 @@
         <v>269</v>
       </c>
       <c r="E97">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -5146,7 +5146,7 @@
         <v>243</v>
       </c>
       <c r="E98">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -5169,7 +5169,7 @@
         <v>144</v>
       </c>
       <c r="E99">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -5192,7 +5192,7 @@
         <v>256</v>
       </c>
       <c r="E100">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -5215,7 +5215,7 @@
         <v>278</v>
       </c>
       <c r="E101">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -5238,7 +5238,7 @@
         <v>281</v>
       </c>
       <c r="E102">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -5261,7 +5261,7 @@
         <v>284</v>
       </c>
       <c r="E103">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -5284,7 +5284,7 @@
         <v>287</v>
       </c>
       <c r="E104">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>290</v>
       </c>
       <c r="E105">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -5330,7 +5330,7 @@
         <v>293</v>
       </c>
       <c r="E106">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -5353,7 +5353,7 @@
         <v>262</v>
       </c>
       <c r="E107">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -5376,7 +5376,7 @@
         <v>204</v>
       </c>
       <c r="E108">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -5399,7 +5399,7 @@
         <v>300</v>
       </c>
       <c r="E109">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -5422,7 +5422,7 @@
         <v>303</v>
       </c>
       <c r="E110">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -5445,7 +5445,7 @@
         <v>306</v>
       </c>
       <c r="E111">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -5468,7 +5468,7 @@
         <v>309</v>
       </c>
       <c r="E112">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -5491,7 +5491,7 @@
         <v>312</v>
       </c>
       <c r="E113">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -5514,7 +5514,7 @@
         <v>130</v>
       </c>
       <c r="E114">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -5537,7 +5537,7 @@
         <v>262</v>
       </c>
       <c r="E115">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -5560,7 +5560,7 @@
         <v>319</v>
       </c>
       <c r="E116">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -5583,7 +5583,7 @@
         <v>293</v>
       </c>
       <c r="E117">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>303</v>
       </c>
       <c r="E118">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -5629,7 +5629,7 @@
         <v>325</v>
       </c>
       <c r="E119">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -5652,7 +5652,7 @@
         <v>328</v>
       </c>
       <c r="E120">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -5675,7 +5675,7 @@
         <v>330</v>
       </c>
       <c r="E121">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F121">
         <v>2</v>
@@ -5698,7 +5698,7 @@
         <v>333</v>
       </c>
       <c r="E122">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -5721,7 +5721,7 @@
         <v>336</v>
       </c>
       <c r="E123">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F123">
         <v>2</v>
@@ -5744,7 +5744,7 @@
         <v>70</v>
       </c>
       <c r="E124">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F124">
         <v>2</v>
@@ -5767,7 +5767,7 @@
         <v>251</v>
       </c>
       <c r="E125">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -5790,7 +5790,7 @@
         <v>98</v>
       </c>
       <c r="E126">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -5813,7 +5813,7 @@
         <v>345</v>
       </c>
       <c r="E127">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -5836,7 +5836,7 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -5859,7 +5859,7 @@
         <v>350</v>
       </c>
       <c r="E129">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -5882,7 +5882,7 @@
         <v>204</v>
       </c>
       <c r="E130">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -5905,7 +5905,7 @@
         <v>124</v>
       </c>
       <c r="E131">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F131">
         <v>2</v>
@@ -5928,7 +5928,7 @@
         <v>188</v>
       </c>
       <c r="E132">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -5951,7 +5951,7 @@
         <v>357</v>
       </c>
       <c r="E133">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -5974,7 +5974,7 @@
         <v>360</v>
       </c>
       <c r="E134">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F134">
         <v>2</v>
@@ -5997,7 +5997,7 @@
         <v>363</v>
       </c>
       <c r="E135">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -6020,7 +6020,7 @@
         <v>269</v>
       </c>
       <c r="E136">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -6043,7 +6043,7 @@
         <v>195</v>
       </c>
       <c r="E137">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6066,7 +6066,7 @@
         <v>369</v>
       </c>
       <c r="E138">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -6089,7 +6089,7 @@
         <v>185</v>
       </c>
       <c r="E139">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -6112,7 +6112,7 @@
         <v>169</v>
       </c>
       <c r="E140">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F140">
         <v>2</v>
@@ -6135,7 +6135,7 @@
         <v>376</v>
       </c>
       <c r="E141">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -6158,7 +6158,7 @@
         <v>379</v>
       </c>
       <c r="E142">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F142">
         <v>2</v>
@@ -6181,7 +6181,7 @@
         <v>382</v>
       </c>
       <c r="E143">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -6204,7 +6204,7 @@
         <v>53</v>
       </c>
       <c r="E144">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -6227,7 +6227,7 @@
         <v>387</v>
       </c>
       <c r="E145">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -6250,7 +6250,7 @@
         <v>390</v>
       </c>
       <c r="E146">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F146">
         <v>2</v>
@@ -6273,7 +6273,7 @@
         <v>390</v>
       </c>
       <c r="E147">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -6296,7 +6296,7 @@
         <v>395</v>
       </c>
       <c r="E148">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -6319,7 +6319,7 @@
         <v>398</v>
       </c>
       <c r="E149">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -6342,7 +6342,7 @@
         <v>401</v>
       </c>
       <c r="E150">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F150">
         <v>2</v>
@@ -6365,7 +6365,7 @@
         <v>33</v>
       </c>
       <c r="E151">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6388,7 +6388,7 @@
         <v>256</v>
       </c>
       <c r="E152">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -6411,7 +6411,7 @@
         <v>109</v>
       </c>
       <c r="E153">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -6434,7 +6434,7 @@
         <v>410</v>
       </c>
       <c r="E154">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -6457,7 +6457,7 @@
         <v>50</v>
       </c>
       <c r="E155">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -6480,7 +6480,7 @@
         <v>414</v>
       </c>
       <c r="E156">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F156">
         <v>2</v>
@@ -6503,7 +6503,7 @@
         <v>416</v>
       </c>
       <c r="E157">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F157">
         <v>2</v>
@@ -6526,7 +6526,7 @@
         <v>419</v>
       </c>
       <c r="E158">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -6549,7 +6549,7 @@
         <v>422</v>
       </c>
       <c r="E159">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -6572,7 +6572,7 @@
         <v>425</v>
       </c>
       <c r="E160">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -6595,7 +6595,7 @@
         <v>428</v>
       </c>
       <c r="E161">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -6618,7 +6618,7 @@
         <v>431</v>
       </c>
       <c r="E162">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F162">
         <v>2</v>
@@ -6641,7 +6641,7 @@
         <v>360</v>
       </c>
       <c r="E163">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -6664,7 +6664,7 @@
         <v>436</v>
       </c>
       <c r="E164">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -6687,7 +6687,7 @@
         <v>439</v>
       </c>
       <c r="E165">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -6710,7 +6710,7 @@
         <v>442</v>
       </c>
       <c r="E166">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -6733,7 +6733,7 @@
         <v>86</v>
       </c>
       <c r="E167">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F167">
         <v>2</v>
@@ -6756,7 +6756,7 @@
         <v>447</v>
       </c>
       <c r="E168">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -6779,7 +6779,7 @@
         <v>59</v>
       </c>
       <c r="E169">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -6802,7 +6802,7 @@
         <v>452</v>
       </c>
       <c r="E170">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -6825,7 +6825,7 @@
         <v>455</v>
       </c>
       <c r="E171">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -6848,7 +6848,7 @@
         <v>458</v>
       </c>
       <c r="E172">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -6871,7 +6871,7 @@
         <v>461</v>
       </c>
       <c r="E173">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -6894,7 +6894,7 @@
         <v>464</v>
       </c>
       <c r="E174">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -6917,7 +6917,7 @@
         <v>217</v>
       </c>
       <c r="E175">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -6940,7 +6940,7 @@
         <v>36</v>
       </c>
       <c r="E176">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -6963,7 +6963,7 @@
         <v>416</v>
       </c>
       <c r="E177">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -6986,7 +6986,7 @@
         <v>472</v>
       </c>
       <c r="E178">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -7009,7 +7009,7 @@
         <v>133</v>
       </c>
       <c r="E179">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F179">
         <v>2</v>
@@ -7032,7 +7032,7 @@
         <v>185</v>
       </c>
       <c r="E180">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -7055,7 +7055,7 @@
         <v>478</v>
       </c>
       <c r="E181">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -7078,7 +7078,7 @@
         <v>480</v>
       </c>
       <c r="E182">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -7101,7 +7101,7 @@
         <v>483</v>
       </c>
       <c r="E183">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F183">
         <v>2</v>
@@ -7124,7 +7124,7 @@
         <v>486</v>
       </c>
       <c r="E184">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -7147,7 +7147,7 @@
         <v>488</v>
       </c>
       <c r="E185">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F185">
         <v>2</v>
@@ -7170,7 +7170,7 @@
         <v>112</v>
       </c>
       <c r="E186">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>493</v>
       </c>
       <c r="E187">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F187">
         <v>2</v>
@@ -7216,7 +7216,7 @@
         <v>36</v>
       </c>
       <c r="E188">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F188">
         <v>2</v>
@@ -7239,7 +7239,7 @@
         <v>498</v>
       </c>
       <c r="E189">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F189">
         <v>2</v>
@@ -7262,7 +7262,7 @@
         <v>501</v>
       </c>
       <c r="E190">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -7285,7 +7285,7 @@
         <v>504</v>
       </c>
       <c r="E191">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -7308,7 +7308,7 @@
         <v>507</v>
       </c>
       <c r="E192">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F192">
         <v>2</v>
@@ -7331,7 +7331,7 @@
         <v>510</v>
       </c>
       <c r="E193">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F193">
         <v>2</v>
@@ -7354,7 +7354,7 @@
         <v>513</v>
       </c>
       <c r="E194">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F194">
         <v>2</v>
@@ -7377,7 +7377,7 @@
         <v>515</v>
       </c>
       <c r="E195">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -7400,7 +7400,7 @@
         <v>518</v>
       </c>
       <c r="E196">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F196">
         <v>2</v>
@@ -7423,7 +7423,7 @@
         <v>521</v>
       </c>
       <c r="E197">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -7446,7 +7446,7 @@
         <v>524</v>
       </c>
       <c r="E198">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F198">
         <v>2</v>
@@ -7469,7 +7469,7 @@
         <v>527</v>
       </c>
       <c r="E199">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F199">
         <v>2</v>
@@ -7492,7 +7492,7 @@
         <v>172</v>
       </c>
       <c r="E200">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F200">
         <v>2</v>
@@ -7515,7 +7515,7 @@
         <v>532</v>
       </c>
       <c r="E201">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F201">
         <v>2</v>
@@ -7538,7 +7538,7 @@
         <v>191</v>
       </c>
       <c r="E202">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F202">
         <v>2</v>
@@ -7561,7 +7561,7 @@
         <v>536</v>
       </c>
       <c r="E203">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F203">
         <v>2</v>
@@ -7584,7 +7584,7 @@
         <v>539</v>
       </c>
       <c r="E204">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F204">
         <v>2</v>
@@ -7607,7 +7607,7 @@
         <v>542</v>
       </c>
       <c r="E205">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -7630,7 +7630,7 @@
         <v>545</v>
       </c>
       <c r="E206">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F206">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>548</v>
       </c>
       <c r="E207">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -7676,7 +7676,7 @@
         <v>235</v>
       </c>
       <c r="E208">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -7699,7 +7699,7 @@
         <v>552</v>
       </c>
       <c r="E209">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -7722,7 +7722,7 @@
         <v>554</v>
       </c>
       <c r="E210">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -7745,7 +7745,7 @@
         <v>557</v>
       </c>
       <c r="E211">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F211">
         <v>2</v>
@@ -7768,7 +7768,7 @@
         <v>390</v>
       </c>
       <c r="E212">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F212">
         <v>2</v>
@@ -7791,7 +7791,7 @@
         <v>562</v>
       </c>
       <c r="E213">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F213">
         <v>2</v>
@@ -7814,7 +7814,7 @@
         <v>103</v>
       </c>
       <c r="E214">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F214">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>567</v>
       </c>
       <c r="E215">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -7860,7 +7860,7 @@
         <v>570</v>
       </c>
       <c r="E216">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F216">
         <v>2</v>
@@ -7883,7 +7883,7 @@
         <v>573</v>
       </c>
       <c r="E217">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -7906,7 +7906,7 @@
         <v>157</v>
       </c>
       <c r="E218">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -7929,7 +7929,7 @@
         <v>578</v>
       </c>
       <c r="E219">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F219">
         <v>2</v>
@@ -7952,7 +7952,7 @@
         <v>581</v>
       </c>
       <c r="E220">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -7975,7 +7975,7 @@
         <v>584</v>
       </c>
       <c r="E221">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -7998,7 +7998,7 @@
         <v>336</v>
       </c>
       <c r="E222">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F222">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>589</v>
       </c>
       <c r="E223">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F223">
         <v>2</v>
@@ -8044,7 +8044,7 @@
         <v>592</v>
       </c>
       <c r="E224">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -8067,7 +8067,7 @@
         <v>595</v>
       </c>
       <c r="E225">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F225">
         <v>2</v>
@@ -8090,7 +8090,7 @@
         <v>598</v>
       </c>
       <c r="E226">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -8113,7 +8113,7 @@
         <v>601</v>
       </c>
       <c r="E227">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F227">
         <v>2</v>
@@ -8136,7 +8136,7 @@
         <v>581</v>
       </c>
       <c r="E228">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -8159,7 +8159,7 @@
         <v>606</v>
       </c>
       <c r="E229">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F229">
         <v>2</v>
@@ -8182,7 +8182,7 @@
         <v>504</v>
       </c>
       <c r="E230">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F230">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>336</v>
       </c>
       <c r="E231">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F231">
         <v>2</v>
@@ -8228,7 +8228,7 @@
         <v>613</v>
       </c>
       <c r="E232">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -8251,7 +8251,7 @@
         <v>615</v>
       </c>
       <c r="E233">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -8274,7 +8274,7 @@
         <v>103</v>
       </c>
       <c r="E234">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -8297,7 +8297,7 @@
         <v>524</v>
       </c>
       <c r="E235">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F235">
         <v>2</v>
@@ -8320,7 +8320,7 @@
         <v>622</v>
       </c>
       <c r="E236">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F236">
         <v>2</v>
@@ -8343,7 +8343,7 @@
         <v>625</v>
       </c>
       <c r="E237">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -8366,7 +8366,7 @@
         <v>169</v>
       </c>
       <c r="E238">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F238">
         <v>2</v>
@@ -8389,7 +8389,7 @@
         <v>30</v>
       </c>
       <c r="E239">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F239">
         <v>2</v>
@@ -8412,7 +8412,7 @@
         <v>615</v>
       </c>
       <c r="E240">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F240">
         <v>2</v>
@@ -8435,7 +8435,7 @@
         <v>634</v>
       </c>
       <c r="E241">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -8458,7 +8458,7 @@
         <v>637</v>
       </c>
       <c r="E242">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -8481,7 +8481,7 @@
         <v>640</v>
       </c>
       <c r="E243">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -8504,7 +8504,7 @@
         <v>12</v>
       </c>
       <c r="E244">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F244">
         <v>2</v>
@@ -8527,7 +8527,7 @@
         <v>644</v>
       </c>
       <c r="E245">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -8550,7 +8550,7 @@
         <v>647</v>
       </c>
       <c r="E246">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F246">
         <v>2</v>
@@ -8573,7 +8573,7 @@
         <v>548</v>
       </c>
       <c r="E247">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F247">
         <v>2</v>
@@ -8596,7 +8596,7 @@
         <v>651</v>
       </c>
       <c r="E248">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F248">
         <v>2</v>
@@ -8619,7 +8619,7 @@
         <v>592</v>
       </c>
       <c r="E249">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -8642,7 +8642,7 @@
         <v>172</v>
       </c>
       <c r="E250">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -8665,7 +8665,7 @@
         <v>478</v>
       </c>
       <c r="E251">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F251">
         <v>2</v>
@@ -8688,7 +8688,7 @@
         <v>532</v>
       </c>
       <c r="E252">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -8711,7 +8711,7 @@
         <v>532</v>
       </c>
       <c r="E253">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -8734,7 +8734,7 @@
         <v>664</v>
       </c>
       <c r="E254">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -8757,7 +8757,7 @@
         <v>667</v>
       </c>
       <c r="E255">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F255">
         <v>2</v>
@@ -8780,7 +8780,7 @@
         <v>204</v>
       </c>
       <c r="E256">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -8803,7 +8803,7 @@
         <v>212</v>
       </c>
       <c r="E257">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -8826,7 +8826,7 @@
         <v>674</v>
       </c>
       <c r="E258">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -8849,7 +8849,7 @@
         <v>677</v>
       </c>
       <c r="E259">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -8872,7 +8872,7 @@
         <v>674</v>
       </c>
       <c r="E260">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F260">
         <v>2</v>
@@ -8895,7 +8895,7 @@
         <v>681</v>
       </c>
       <c r="E261">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -8918,7 +8918,7 @@
         <v>684</v>
       </c>
       <c r="E262">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -8941,7 +8941,7 @@
         <v>686</v>
       </c>
       <c r="E263">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F263">
         <v>2</v>
@@ -8964,7 +8964,7 @@
         <v>92</v>
       </c>
       <c r="E264">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F264">
         <v>2</v>
@@ -8987,7 +8987,7 @@
         <v>552</v>
       </c>
       <c r="E265">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F265">
         <v>2</v>
@@ -9010,7 +9010,7 @@
         <v>172</v>
       </c>
       <c r="E266">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F266">
         <v>2</v>
@@ -9033,7 +9033,7 @@
         <v>382</v>
       </c>
       <c r="E267">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F267">
         <v>2</v>
@@ -9056,7 +9056,7 @@
         <v>21</v>
       </c>
       <c r="E268">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F268">
         <v>2</v>
@@ -9079,7 +9079,7 @@
         <v>431</v>
       </c>
       <c r="E269">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F269">
         <v>2</v>
@@ -9102,7 +9102,7 @@
         <v>700</v>
       </c>
       <c r="E270">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F270">
         <v>2</v>
@@ -9125,7 +9125,7 @@
         <v>548</v>
       </c>
       <c r="E271">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F271">
         <v>2</v>
@@ -9148,7 +9148,7 @@
         <v>521</v>
       </c>
       <c r="E272">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F272">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>674</v>
       </c>
       <c r="E273">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F273">
         <v>2</v>
@@ -9194,7 +9194,7 @@
         <v>248</v>
       </c>
       <c r="E274">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -9217,7 +9217,7 @@
         <v>709</v>
       </c>
       <c r="E275">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F275">
         <v>2</v>
@@ -9240,7 +9240,7 @@
         <v>439</v>
       </c>
       <c r="E276">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F276">
         <v>2</v>
@@ -9263,7 +9263,7 @@
         <v>714</v>
       </c>
       <c r="E277">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F277">
         <v>2</v>
@@ -9286,7 +9286,7 @@
         <v>455</v>
       </c>
       <c r="E278">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F278">
         <v>2</v>
@@ -9309,7 +9309,7 @@
         <v>718</v>
       </c>
       <c r="E279">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -9332,7 +9332,7 @@
         <v>53</v>
       </c>
       <c r="E280">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F280">
         <v>2</v>
@@ -9355,7 +9355,7 @@
         <v>235</v>
       </c>
       <c r="E281">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F281">
         <v>2</v>
@@ -9378,7 +9378,7 @@
         <v>180</v>
       </c>
       <c r="E282">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F282">
         <v>2</v>
@@ -9401,7 +9401,7 @@
         <v>204</v>
       </c>
       <c r="E283">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F283">
         <v>2</v>
@@ -9424,7 +9424,7 @@
         <v>728</v>
       </c>
       <c r="E284">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F284">
         <v>2</v>
@@ -9447,7 +9447,7 @@
         <v>731</v>
       </c>
       <c r="E285">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F285">
         <v>2</v>
@@ -9470,7 +9470,7 @@
         <v>734</v>
       </c>
       <c r="E286">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F286">
         <v>2</v>
@@ -9493,7 +9493,7 @@
         <v>737</v>
       </c>
       <c r="E287">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F287">
         <v>2</v>
@@ -9516,7 +9516,7 @@
         <v>428</v>
       </c>
       <c r="E288">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F288">
         <v>2</v>
@@ -9539,7 +9539,7 @@
         <v>741</v>
       </c>
       <c r="E289">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F289">
         <v>2</v>
@@ -9562,7 +9562,7 @@
         <v>552</v>
       </c>
       <c r="E290">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F290">
         <v>2</v>
@@ -9585,7 +9585,7 @@
         <v>36</v>
       </c>
       <c r="E291">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F291">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>376</v>
       </c>
       <c r="E292">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F292">
         <v>2</v>
@@ -9631,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="E293">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F293">
         <v>2</v>
@@ -9654,7 +9654,7 @@
         <v>750</v>
       </c>
       <c r="E294">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F294">
         <v>2</v>
@@ -9677,7 +9677,7 @@
         <v>753</v>
       </c>
       <c r="E295">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F295">
         <v>2</v>
@@ -9700,7 +9700,7 @@
         <v>637</v>
       </c>
       <c r="E296">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F296">
         <v>2</v>
@@ -9723,7 +9723,7 @@
         <v>758</v>
       </c>
       <c r="E297">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F297">
         <v>2</v>
@@ -9746,7 +9746,7 @@
         <v>127</v>
       </c>
       <c r="E298">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F298">
         <v>2</v>
@@ -9769,7 +9769,7 @@
         <v>573</v>
       </c>
       <c r="E299">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F299">
         <v>2</v>
@@ -9792,7 +9792,7 @@
         <v>191</v>
       </c>
       <c r="E300">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F300">
         <v>2</v>
@@ -9815,7 +9815,7 @@
         <v>387</v>
       </c>
       <c r="E301">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F301">
         <v>2</v>
@@ -9838,7 +9838,7 @@
         <v>767</v>
       </c>
       <c r="E302">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F302">
         <v>2</v>
@@ -9861,7 +9861,7 @@
         <v>18</v>
       </c>
       <c r="E303">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F303">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>387</v>
       </c>
       <c r="E304">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F304">
         <v>2</v>
@@ -9907,7 +9907,7 @@
         <v>539</v>
       </c>
       <c r="E305">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F305">
         <v>2</v>
@@ -9930,7 +9930,7 @@
         <v>634</v>
       </c>
       <c r="E306">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F306">
         <v>2</v>
@@ -9953,7 +9953,7 @@
         <v>667</v>
       </c>
       <c r="E307">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F307">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>779</v>
       </c>
       <c r="E308">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F308">
         <v>2</v>
@@ -9999,7 +9999,7 @@
         <v>677</v>
       </c>
       <c r="E309">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F309">
         <v>2</v>
@@ -10022,7 +10022,7 @@
         <v>783</v>
       </c>
       <c r="E310">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F310">
         <v>2</v>
@@ -10045,7 +10045,7 @@
         <v>677</v>
       </c>
       <c r="E311">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F311">
         <v>2</v>
@@ -10068,7 +10068,7 @@
         <v>248</v>
       </c>
       <c r="E312">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F312">
         <v>2</v>
@@ -10091,7 +10091,7 @@
         <v>214</v>
       </c>
       <c r="E313">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F313">
         <v>2</v>
@@ -10114,7 +10114,7 @@
         <v>570</v>
       </c>
       <c r="E314">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F314">
         <v>2</v>
@@ -10137,7 +10137,7 @@
         <v>793</v>
       </c>
       <c r="E315">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F315">
         <v>2</v>
@@ -10160,7 +10160,7 @@
         <v>615</v>
       </c>
       <c r="E316">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F316">
         <v>2</v>
@@ -10183,7 +10183,7 @@
         <v>65</v>
       </c>
       <c r="E317">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F317">
         <v>2</v>
@@ -10206,7 +10206,7 @@
         <v>328</v>
       </c>
       <c r="E318">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F318">
         <v>2</v>
@@ -10229,7 +10229,7 @@
         <v>269</v>
       </c>
       <c r="E319">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F319">
         <v>2</v>
@@ -10252,7 +10252,7 @@
         <v>109</v>
       </c>
       <c r="E320">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F320">
         <v>2</v>
@@ -10275,7 +10275,7 @@
         <v>507</v>
       </c>
       <c r="E321">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F321">
         <v>2</v>
@@ -10298,7 +10298,7 @@
         <v>573</v>
       </c>
       <c r="E322">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F322">
         <v>2</v>
@@ -10321,7 +10321,7 @@
         <v>235</v>
       </c>
       <c r="E323">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F323">
         <v>2</v>
@@ -10344,7 +10344,7 @@
         <v>811</v>
       </c>
       <c r="E324">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F324">
         <v>2</v>
@@ -10367,7 +10367,7 @@
         <v>813</v>
       </c>
       <c r="E325">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F325">
         <v>2</v>
@@ -10390,7 +10390,7 @@
         <v>815</v>
       </c>
       <c r="E326">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F326">
         <v>2</v>
@@ -10413,7 +10413,7 @@
         <v>818</v>
       </c>
       <c r="E327">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F327">
         <v>2</v>
@@ -10436,7 +10436,7 @@
         <v>554</v>
       </c>
       <c r="E328">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F328">
         <v>2</v>
@@ -10459,7 +10459,7 @@
         <v>127</v>
       </c>
       <c r="E329">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F329">
         <v>2</v>
@@ -10482,7 +10482,7 @@
         <v>219</v>
       </c>
       <c r="E330">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F330">
         <v>2</v>
@@ -10505,7 +10505,7 @@
         <v>827</v>
       </c>
       <c r="E331">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F331">
         <v>2</v>
@@ -10528,7 +10528,7 @@
         <v>830</v>
       </c>
       <c r="E332">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F332">
         <v>2</v>
@@ -10551,7 +10551,7 @@
         <v>557</v>
       </c>
       <c r="E333">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F333">
         <v>2</v>
@@ -10574,7 +10574,7 @@
         <v>834</v>
       </c>
       <c r="E334">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F334">
         <v>2</v>
@@ -10597,7 +10597,7 @@
         <v>480</v>
       </c>
       <c r="E335">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F335">
         <v>2</v>
@@ -10620,7 +10620,7 @@
         <v>109</v>
       </c>
       <c r="E336">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F336">
         <v>2</v>
